--- a/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.2022_Thiaminase_MetaData_drew.xlsx
+++ b/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.2022_Thiaminase_MetaData_drew.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dport\NOAA R\thiaminase\Thiaminase Activity Assays.12.15.2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Drew Porter\R\thiaminase\Thiaminase Activity Assays.12.15.2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446E311D-C6EE-47A4-94EC-A85131E26240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3300" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="28800" windowHeight="15375"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -783,7 +782,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -854,7 +853,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1131,33 +1130,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I165" sqref="I165"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="24.36328125" customWidth="1"/>
-    <col min="7" max="9" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" customWidth="1"/>
-    <col min="12" max="13" width="10.81640625" customWidth="1"/>
-    <col min="14" max="14" width="25.1796875" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" customWidth="1"/>
+    <col min="1" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
     <col min="16" max="16" width="22" customWidth="1"/>
-    <col min="17" max="18" width="27.26953125" customWidth="1"/>
-    <col min="19" max="19" width="15.1796875" customWidth="1"/>
-    <col min="20" max="20" width="16.1796875" customWidth="1"/>
-    <col min="21" max="21" width="91.1796875" customWidth="1"/>
+    <col min="17" max="18" width="27.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1"/>
+    <col min="21" max="21" width="91.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>236</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1149</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2980</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2998</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>904</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>907</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>920</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>924</v>
       </c>
@@ -1974,7 +1973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>925</v>
       </c>
@@ -2030,7 +2029,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>926</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>928</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1058</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1150</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1151</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1152</v>
       </c>
@@ -2387,7 +2386,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1153</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1154</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1155</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1156</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1255</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1256</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1525</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1568</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1585</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1599</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1658</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1699</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1700</v>
       </c>
@@ -3187,7 +3186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2110</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2145</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2604</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2606</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2664</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2666</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2668</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2670</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2671</v>
       </c>
@@ -3751,7 +3750,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2815</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2933</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2978</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2981</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3001</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3204</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3283</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3284</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3285</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3383</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3385</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3386</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3387</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3389</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3444</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3445</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3446</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3447</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3454</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3455</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>87</v>
       </c>
@@ -5271,7 +5270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>27</v>
       </c>
@@ -5539,7 +5538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>58</v>
       </c>
@@ -5606,7 +5605,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -5797,7 +5796,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>105</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>108</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>140</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -6355,7 +6354,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>130</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>131</v>
       </c>
@@ -6479,7 +6478,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>133</v>
       </c>
@@ -6603,7 +6602,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -6665,7 +6664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -7098,7 +7097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -7222,7 +7221,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>165</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>166</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>167</v>
       </c>
@@ -7408,7 +7407,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>168</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>169</v>
       </c>
@@ -7532,7 +7531,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>170</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>171</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>172</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>68</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>69</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>70</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -8019,7 +8018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>76</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>78</v>
       </c>
@@ -8137,7 +8136,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>905</v>
       </c>
@@ -8199,7 +8198,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>906</v>
       </c>
@@ -8261,7 +8260,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>921</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>922</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>923</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>927</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>940</v>
       </c>
@@ -8541,7 +8540,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1021</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1524</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1569</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1579</v>
       </c>
@@ -8789,7 +8788,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2007</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2008</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2070</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2071</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2144</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2226</v>
       </c>
@@ -9152,7 +9151,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2665</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2667</v>
       </c>
@@ -9282,7 +9281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2669</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2672</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2673</v>
       </c>
@@ -9477,7 +9476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2934</v>
       </c>
@@ -9539,7 +9538,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2936</v>
       </c>
@@ -9601,7 +9600,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2979</v>
       </c>
@@ -9663,7 +9662,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2999</v>
       </c>
@@ -9725,7 +9724,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3109</v>
       </c>
@@ -9787,7 +9786,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3282</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3384</v>
       </c>
@@ -9914,7 +9913,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3388</v>
       </c>
@@ -9976,7 +9975,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3390</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>228</v>
       </c>
@@ -10102,7 +10101,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>219</v>
       </c>
@@ -10166,7 +10165,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>225</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>227</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>221</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>218</v>
       </c>
@@ -10428,7 +10427,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>82</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>90</v>
       </c>
@@ -10562,7 +10561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>89</v>
       </c>
@@ -10629,7 +10628,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>57</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>25</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -10964,7 +10963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>39</v>
       </c>
@@ -11031,7 +11030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>50</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>102</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>107</v>
       </c>
@@ -11208,7 +11207,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>141</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>142</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>143</v>
       </c>
@@ -11394,7 +11393,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>144</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>145</v>
       </c>
@@ -11518,7 +11517,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>148</v>
       </c>
@@ -11580,7 +11579,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>136</v>
       </c>
@@ -11642,7 +11641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>137</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>138</v>
       </c>
@@ -11715,11 +11714,11 @@
         <v>7.3321884292776141E-2</v>
       </c>
       <c r="D171" s="11">
-        <f t="shared" ref="D171:D202" si="13">3*C171</f>
+        <f t="shared" ref="D171:D198" si="13">3*C171</f>
         <v>0.21996565287832842</v>
       </c>
       <c r="E171" s="11" t="b">
-        <f t="shared" ref="E171:E202" si="14">B171&lt;D171</f>
+        <f t="shared" ref="E171:E198" si="14">B171&lt;D171</f>
         <v>1</v>
       </c>
       <c r="F171" s="11" t="str">
@@ -11766,7 +11765,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>153</v>
       </c>
@@ -11828,7 +11827,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>154</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>155</v>
       </c>
@@ -11952,7 +11951,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>156</v>
       </c>
@@ -12014,7 +12013,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>157</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>158</v>
       </c>
@@ -12138,7 +12137,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>160</v>
       </c>
@@ -12200,7 +12199,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>162</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>42</v>
       </c>
@@ -12329,7 +12328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>43</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -12462,7 +12461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -12590,7 +12589,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>205</v>
       </c>
@@ -12655,7 +12654,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>206</v>
       </c>
@@ -12720,7 +12719,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>207</v>
       </c>
@@ -12785,7 +12784,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>208</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>209</v>
       </c>
@@ -12915,7 +12914,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>210</v>
       </c>
@@ -12980,7 +12979,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>211</v>
       </c>
@@ -13045,7 +13044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>212</v>
       </c>
@@ -13110,7 +13109,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>213</v>
       </c>
@@ -13175,7 +13174,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>71</v>
       </c>
@@ -13234,7 +13233,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>73</v>
       </c>
@@ -13293,7 +13292,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>74</v>
       </c>
@@ -13352,7 +13351,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>75</v>
       </c>
@@ -13411,7 +13410,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>77</v>
       </c>
@@ -13470,556 +13469,556 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S200" s="3"/>
       <c r="T200" s="3"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S202" s="3"/>
       <c r="T202" s="3"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S203" s="3"/>
       <c r="T203" s="3"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S205" s="3"/>
       <c r="T205" s="3"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S206" s="3"/>
       <c r="T206" s="3"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S207" s="3"/>
       <c r="T207" s="3"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S208" s="3"/>
       <c r="T208" s="3"/>
     </row>
-    <row r="209" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="209" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
     </row>
-    <row r="210" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="210" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S210" s="3"/>
       <c r="T210" s="3"/>
     </row>
-    <row r="211" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="211" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
     </row>
-    <row r="212" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="212" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S212" s="3"/>
       <c r="T212" s="3"/>
     </row>
-    <row r="213" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="213" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S213" s="3"/>
       <c r="T213" s="3"/>
     </row>
-    <row r="214" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="214" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S214" s="3"/>
       <c r="T214" s="3"/>
     </row>
-    <row r="215" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="215" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S215" s="3"/>
       <c r="T215" s="3"/>
     </row>
-    <row r="216" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="216" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S216" s="3"/>
       <c r="T216" s="3"/>
     </row>
-    <row r="217" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="217" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S217" s="3"/>
       <c r="T217" s="3"/>
     </row>
-    <row r="218" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="218" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S218" s="3"/>
       <c r="T218" s="3"/>
     </row>
-    <row r="219" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="219" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S219" s="3"/>
       <c r="T219" s="3"/>
     </row>
-    <row r="220" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="220" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
     </row>
-    <row r="221" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="221" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S221" s="3"/>
       <c r="T221" s="3"/>
     </row>
-    <row r="222" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="222" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S222" s="3"/>
       <c r="T222" s="3"/>
     </row>
-    <row r="223" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="223" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S223" s="3"/>
       <c r="T223" s="3"/>
     </row>
-    <row r="224" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="224" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S224" s="3"/>
       <c r="T224" s="3"/>
     </row>
-    <row r="225" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="225" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S225" s="3"/>
       <c r="T225" s="3"/>
     </row>
-    <row r="226" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="226" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S226" s="3"/>
       <c r="T226" s="3"/>
     </row>
-    <row r="227" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="227" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S227" s="3"/>
       <c r="T227" s="3"/>
     </row>
-    <row r="228" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="228" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S228" s="3"/>
       <c r="T228" s="3"/>
     </row>
-    <row r="229" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="229" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S229" s="3"/>
       <c r="T229" s="3"/>
     </row>
-    <row r="230" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="230" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S230" s="3"/>
       <c r="T230" s="3"/>
     </row>
-    <row r="231" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="231" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S231" s="3"/>
       <c r="T231" s="3"/>
     </row>
-    <row r="232" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="232" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S232" s="3"/>
       <c r="T232" s="3"/>
     </row>
-    <row r="233" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="233" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S233" s="3"/>
       <c r="T233" s="3"/>
     </row>
-    <row r="234" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="234" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S234" s="3"/>
       <c r="T234" s="3"/>
     </row>
-    <row r="235" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="235" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S235" s="3"/>
       <c r="T235" s="3"/>
     </row>
-    <row r="236" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="236" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S236" s="3"/>
       <c r="T236" s="3"/>
     </row>
-    <row r="237" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="237" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S237" s="3"/>
       <c r="T237" s="3"/>
     </row>
-    <row r="238" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="238" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S238" s="3"/>
       <c r="T238" s="3"/>
     </row>
-    <row r="239" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="239" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S239" s="3"/>
       <c r="T239" s="3"/>
     </row>
-    <row r="240" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="240" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S240" s="3"/>
       <c r="T240" s="3"/>
     </row>
-    <row r="241" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="241" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S241" s="3"/>
       <c r="T241" s="3"/>
     </row>
-    <row r="242" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="242" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S242" s="3"/>
       <c r="T242" s="3"/>
     </row>
-    <row r="243" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="243" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
     </row>
-    <row r="244" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="244" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S244" s="3"/>
       <c r="T244" s="3"/>
     </row>
-    <row r="245" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="245" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S245" s="3"/>
       <c r="T245" s="3"/>
     </row>
-    <row r="246" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="246" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S246" s="3"/>
       <c r="T246" s="3"/>
     </row>
-    <row r="247" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="247" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S247" s="3"/>
       <c r="T247" s="3"/>
     </row>
-    <row r="248" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="248" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S248" s="3"/>
       <c r="T248" s="3"/>
     </row>
-    <row r="249" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="249" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S249" s="3"/>
       <c r="T249" s="3"/>
     </row>
-    <row r="250" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="250" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S250" s="3"/>
       <c r="T250" s="3"/>
     </row>
-    <row r="251" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="251" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S251" s="3"/>
       <c r="T251" s="3"/>
     </row>
-    <row r="252" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="252" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S252" s="3"/>
       <c r="T252" s="3"/>
     </row>
-    <row r="253" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="253" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S253" s="3"/>
       <c r="T253" s="3"/>
     </row>
-    <row r="254" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="254" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S254" s="3"/>
       <c r="T254" s="3"/>
     </row>
-    <row r="255" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="255" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S255" s="3"/>
       <c r="T255" s="3"/>
     </row>
-    <row r="256" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="256" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S256" s="3"/>
       <c r="T256" s="3"/>
     </row>
-    <row r="257" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="257" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S257" s="3"/>
       <c r="T257" s="3"/>
     </row>
-    <row r="258" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="258" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S258" s="3"/>
       <c r="T258" s="3"/>
     </row>
-    <row r="259" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="259" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S259" s="3"/>
       <c r="T259" s="3"/>
     </row>
-    <row r="260" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="260" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S260" s="3"/>
       <c r="T260" s="3"/>
     </row>
-    <row r="261" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="261" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S261" s="3"/>
       <c r="T261" s="3"/>
     </row>
-    <row r="262" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="262" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S262" s="3"/>
       <c r="T262" s="3"/>
     </row>
-    <row r="263" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="263" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S263" s="3"/>
       <c r="T263" s="3"/>
     </row>
-    <row r="264" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="264" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S264" s="3"/>
       <c r="T264" s="3"/>
     </row>
-    <row r="265" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="265" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S265" s="3"/>
       <c r="T265" s="3"/>
     </row>
-    <row r="266" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="266" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S266" s="3"/>
       <c r="T266" s="3"/>
     </row>
-    <row r="267" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="267" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S267" s="3"/>
       <c r="T267" s="3"/>
     </row>
-    <row r="268" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="268" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S268" s="3"/>
       <c r="T268" s="3"/>
     </row>
-    <row r="269" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="269" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S269" s="3"/>
       <c r="T269" s="3"/>
     </row>
-    <row r="270" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="270" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S270" s="3"/>
       <c r="T270" s="3"/>
     </row>
-    <row r="271" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="271" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S271" s="3"/>
       <c r="T271" s="3"/>
     </row>
-    <row r="272" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="272" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S272" s="3"/>
       <c r="T272" s="3"/>
     </row>
-    <row r="273" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S273" s="3"/>
       <c r="T273" s="3"/>
     </row>
-    <row r="274" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S274" s="3"/>
       <c r="T274" s="3"/>
     </row>
-    <row r="275" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="275" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S275" s="3"/>
       <c r="T275" s="3"/>
     </row>
-    <row r="276" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S276" s="3"/>
       <c r="T276" s="3"/>
     </row>
-    <row r="277" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S277" s="3"/>
       <c r="T277" s="3"/>
     </row>
-    <row r="278" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="278" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S278" s="3"/>
       <c r="T278" s="3"/>
     </row>
-    <row r="279" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S279" s="3"/>
       <c r="T279" s="3"/>
     </row>
-    <row r="280" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S280" s="3"/>
       <c r="T280" s="3"/>
     </row>
-    <row r="281" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S281" s="3"/>
       <c r="T281" s="3"/>
     </row>
-    <row r="282" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S282" s="3"/>
       <c r="T282" s="3"/>
     </row>
-    <row r="283" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="283" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S283" s="3"/>
       <c r="T283" s="3"/>
     </row>
-    <row r="284" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="284" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S284" s="3"/>
       <c r="T284" s="3"/>
     </row>
-    <row r="285" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="285" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S285" s="3"/>
       <c r="T285" s="3"/>
     </row>
-    <row r="286" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="286" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S286" s="3"/>
       <c r="T286" s="3"/>
     </row>
-    <row r="287" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="287" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S287" s="3"/>
       <c r="T287" s="3"/>
     </row>
-    <row r="288" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="288" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S288" s="3"/>
       <c r="T288" s="3"/>
     </row>
-    <row r="289" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="289" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S289" s="3"/>
       <c r="T289" s="3"/>
     </row>
-    <row r="290" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="290" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S290" s="3"/>
       <c r="T290" s="3"/>
     </row>
-    <row r="291" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="291" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S291" s="3"/>
       <c r="T291" s="3"/>
     </row>
-    <row r="292" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="292" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S292" s="3"/>
       <c r="T292" s="3"/>
     </row>
-    <row r="293" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S293" s="3"/>
       <c r="T293" s="3"/>
     </row>
-    <row r="294" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S294" s="3"/>
       <c r="T294" s="3"/>
     </row>
-    <row r="295" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="295" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S295" s="3"/>
       <c r="T295" s="3"/>
     </row>
-    <row r="296" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="296" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S296" s="3"/>
       <c r="T296" s="3"/>
     </row>
-    <row r="297" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="297" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S297" s="3"/>
       <c r="T297" s="3"/>
     </row>
-    <row r="298" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S298" s="3"/>
       <c r="T298" s="3"/>
     </row>
-    <row r="299" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="299" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S299" s="3"/>
       <c r="T299" s="3"/>
     </row>
-    <row r="300" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S300" s="3"/>
       <c r="T300" s="3"/>
     </row>
-    <row r="301" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="301" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S301" s="3"/>
       <c r="T301" s="3"/>
     </row>
-    <row r="302" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="302" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S302" s="3"/>
       <c r="T302" s="3"/>
     </row>
-    <row r="303" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="303" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S303" s="3"/>
       <c r="T303" s="3"/>
     </row>
-    <row r="304" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="304" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S304" s="3"/>
       <c r="T304" s="3"/>
     </row>
-    <row r="305" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="305" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S305" s="3"/>
       <c r="T305" s="3"/>
     </row>
-    <row r="306" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="306" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S306" s="3"/>
       <c r="T306" s="3"/>
     </row>
-    <row r="307" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="307" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S307" s="3"/>
       <c r="T307" s="3"/>
     </row>
-    <row r="308" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="308" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S308" s="3"/>
       <c r="T308" s="3"/>
     </row>
-    <row r="309" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="309" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S309" s="3"/>
       <c r="T309" s="3"/>
     </row>
-    <row r="310" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="310" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S310" s="3"/>
       <c r="T310" s="3"/>
     </row>
-    <row r="311" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="311" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S311" s="3"/>
       <c r="T311" s="3"/>
     </row>
-    <row r="312" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="312" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S312" s="3"/>
       <c r="T312" s="3"/>
     </row>
-    <row r="313" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="313" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S313" s="3"/>
       <c r="T313" s="3"/>
     </row>
-    <row r="314" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="314" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S314" s="3"/>
       <c r="T314" s="3"/>
     </row>
-    <row r="315" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="315" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S315" s="3"/>
       <c r="T315" s="3"/>
     </row>
-    <row r="316" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="316" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S316" s="3"/>
       <c r="T316" s="3"/>
     </row>
-    <row r="317" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="317" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S317" s="3"/>
       <c r="T317" s="3"/>
     </row>
-    <row r="318" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="318" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S318" s="3"/>
       <c r="T318" s="3"/>
     </row>
-    <row r="319" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="319" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S319" s="3"/>
       <c r="T319" s="3"/>
     </row>
-    <row r="320" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="320" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S320" s="3"/>
       <c r="T320" s="3"/>
     </row>
-    <row r="321" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="321" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S321" s="3"/>
       <c r="T321" s="3"/>
     </row>
-    <row r="322" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="322" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S322" s="3"/>
       <c r="T322" s="3"/>
     </row>
-    <row r="323" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="323" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S323" s="3"/>
       <c r="T323" s="3"/>
     </row>
-    <row r="324" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="324" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S324" s="3"/>
       <c r="T324" s="3"/>
     </row>
-    <row r="325" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="325" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S325" s="3"/>
       <c r="T325" s="3"/>
     </row>
-    <row r="326" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="326" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S326" s="3"/>
       <c r="T326" s="3"/>
     </row>
-    <row r="327" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="327" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S327" s="3"/>
       <c r="T327" s="3"/>
     </row>
-    <row r="328" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="328" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S328" s="3"/>
       <c r="T328" s="3"/>
     </row>
-    <row r="329" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="329" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S329" s="3"/>
       <c r="T329" s="3"/>
     </row>
-    <row r="330" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="330" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S330" s="3"/>
       <c r="T330" s="3"/>
     </row>
-    <row r="331" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="331" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S331" s="3"/>
       <c r="T331" s="3"/>
     </row>
-    <row r="332" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="332" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S332" s="3"/>
       <c r="T332" s="3"/>
     </row>
-    <row r="333" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="333" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S333" s="3"/>
       <c r="T333" s="3"/>
     </row>
-    <row r="334" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="334" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S334" s="3"/>
       <c r="T334" s="3"/>
     </row>
-    <row r="335" spans="19:20" x14ac:dyDescent="0.35">
+    <row r="335" spans="19:20" x14ac:dyDescent="0.25">
       <c r="S335" s="3"/>
       <c r="T335" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U335">
+  <sortState ref="A2:U335">
     <sortCondition ref="E1:E335"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14028,14 +14027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.2022_Thiaminase_MetaData_drew.xlsx
+++ b/Thiaminase Activity Assays.12.15.2022/WORKING.COPY.2022_Thiaminase_MetaData_drew.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="279">
   <si>
     <t>Survey</t>
   </si>
@@ -755,9 +755,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Bering Sea</t>
-  </si>
-  <si>
     <t>Southeast</t>
   </si>
   <si>
@@ -854,7 +851,28 @@
     <t>Herring #6</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Auke Bay</t>
+  </si>
+  <si>
+    <t>Southern Bering Sea</t>
+  </si>
+  <si>
+    <t>Brothers Islands 2021</t>
+  </si>
+  <si>
+    <t>Northern Bering Sea</t>
+  </si>
+  <si>
+    <t>Eagle Beach (Juneau)</t>
+  </si>
+  <si>
+    <t>SBS2021</t>
+  </si>
+  <si>
+    <t>Fishermans Bend</t>
+  </si>
+  <si>
+    <t>Statter Harbor</t>
   </si>
 </sst>
 </file>
@@ -903,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -931,6 +949,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1216,7 +1235,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D727" sqref="D727"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,8 +1243,9 @@
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="4" width="16.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="25.140625" customWidth="1"/>
     <col min="10" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="25.140625" customWidth="1"/>
@@ -1245,13 +1265,13 @@
         <v>237</v>
       </c>
       <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
         <v>242</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>243</v>
-      </c>
-      <c r="E1" t="s">
-        <v>244</v>
       </c>
       <c r="F1" t="s">
         <v>238</v>
@@ -1313,7 +1333,7 @@
         <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1366,7 +1386,7 @@
         <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
@@ -1419,7 +1439,7 @@
         <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
         <v>2</v>
@@ -1472,7 +1492,7 @@
         <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
         <v>2</v>
@@ -1525,7 +1545,7 @@
         <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -1583,7 +1603,7 @@
         <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -1641,7 +1661,7 @@
         <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
@@ -1699,10 +1719,10 @@
         <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H9" t="s">
         <v>119</v>
@@ -1752,10 +1772,10 @@
         <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H10" t="s">
         <v>123</v>
@@ -1807,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
@@ -1862,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>
@@ -1917,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G13" t="s">
         <v>79</v>
@@ -1966,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G14" t="s">
         <v>79</v>
@@ -2015,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G15" t="s">
         <v>79</v>
@@ -2064,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G16" t="s">
         <v>79</v>
@@ -2113,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G17" t="s">
         <v>79</v>
@@ -2162,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G18" t="s">
         <v>217</v>
@@ -2214,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G19" t="s">
         <v>2</v>
@@ -2269,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G20" t="s">
         <v>2</v>
@@ -2324,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
@@ -2379,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G22" t="s">
         <v>2</v>
@@ -2434,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G23" t="s">
         <v>2</v>
@@ -2489,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
@@ -2544,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
@@ -2599,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G26" t="s">
         <v>217</v>
@@ -2651,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G27" t="s">
         <v>217</v>
@@ -2703,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G28" t="s">
         <v>217</v>
@@ -2758,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
         <v>217</v>
@@ -2813,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
@@ -2868,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G31" t="s">
         <v>217</v>
@@ -2923,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
         <v>217</v>
@@ -2978,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
         <v>217</v>
@@ -3033,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
         <v>217</v>
@@ -3088,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G35" t="s">
         <v>217</v>
@@ -3140,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G36" t="s">
         <v>217</v>
@@ -3192,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G37" t="s">
         <v>2</v>
@@ -3247,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G38" t="s">
         <v>2</v>
@@ -3302,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G39" t="s">
         <v>2</v>
@@ -3357,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G40" t="s">
         <v>2</v>
@@ -3415,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G41" t="s">
         <v>2</v>
@@ -3473,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G42" t="s">
         <v>2</v>
@@ -3531,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G43" t="s">
         <v>2</v>
@@ -3589,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G44" t="s">
         <v>2</v>
@@ -3644,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G45" t="s">
         <v>2</v>
@@ -3699,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G46" t="s">
         <v>2</v>
@@ -3754,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G47" t="s">
         <v>2</v>
@@ -3809,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G48" t="s">
         <v>2</v>
@@ -3864,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G49" t="s">
         <v>2</v>
@@ -3919,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G50" t="s">
         <v>2</v>
@@ -3977,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G51" t="s">
         <v>2</v>
@@ -4035,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G52" t="s">
         <v>2</v>
@@ -4093,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G53" t="s">
         <v>2</v>
@@ -4148,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G54" t="s">
         <v>2</v>
@@ -4203,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G55" t="s">
         <v>2</v>
@@ -4258,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G56" t="s">
         <v>2</v>
@@ -4313,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G57" t="s">
         <v>2</v>
@@ -4368,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G58" t="s">
         <v>2</v>
@@ -4423,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G59" t="s">
         <v>2</v>
@@ -4478,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G60" t="s">
         <v>2</v>
@@ -4533,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G61" t="s">
         <v>2</v>
@@ -4588,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G62" t="s">
         <v>2</v>
@@ -4646,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G63" t="s">
         <v>2</v>
@@ -4704,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G64" t="s">
         <v>217</v>
@@ -4761,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G65" t="s">
         <v>2</v>
@@ -4821,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G66" t="s">
         <v>2</v>
@@ -4881,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G67" t="s">
         <v>2</v>
@@ -4941,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G68" t="s">
         <v>2</v>
@@ -5001,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G69" t="s">
         <v>2</v>
@@ -5061,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G70" t="s">
         <v>2</v>
@@ -5121,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G71" t="s">
         <v>2</v>
@@ -5181,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G72" t="s">
         <v>2</v>
@@ -5241,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G73" t="s">
         <v>2</v>
@@ -5301,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H74" t="s">
         <v>119</v>
@@ -5356,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H75" t="s">
         <v>120</v>
@@ -5411,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H76" t="s">
         <v>121</v>
@@ -5466,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
         <v>121</v>
@@ -5521,10 +5541,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H78" t="s">
         <v>121</v>
@@ -5576,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G79" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H79" t="s">
         <v>123</v>
@@ -5631,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H80" t="s">
         <v>119</v>
@@ -5686,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H81" t="s">
         <v>150</v>
@@ -5741,10 +5761,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H82" t="s">
         <v>152</v>
@@ -5796,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G83" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H83" t="s">
         <v>122</v>
@@ -5851,10 +5871,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H84" t="s">
         <v>152</v>
@@ -5906,10 +5926,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H85" t="s">
         <v>122</v>
@@ -5961,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H86" t="s">
         <v>122</v>
@@ -6016,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H87" t="s">
         <v>122</v>
@@ -6071,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H88" t="s">
         <v>122</v>
@@ -6126,10 +6146,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
         <v>122</v>
@@ -6181,10 +6201,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G90" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H90" t="s">
         <v>122</v>
@@ -6236,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G91" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H91" t="s">
         <v>121</v>
@@ -6291,10 +6311,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H92" t="s">
         <v>122</v>
@@ -6346,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G93" t="s">
         <v>2</v>
@@ -6406,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G94" t="s">
         <v>2</v>
@@ -6466,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G95" t="s">
         <v>2</v>
@@ -6511,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G96" t="s">
         <v>2</v>
@@ -6565,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H97" t="s">
         <v>122</v>
@@ -6620,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H98" t="s">
         <v>122</v>
@@ -6675,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G99" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H99" t="s">
         <v>122</v>
@@ -6730,10 +6750,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H100" t="s">
         <v>122</v>
@@ -6785,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H101" t="s">
         <v>122</v>
@@ -6840,10 +6860,10 @@
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H102" t="s">
         <v>122</v>
@@ -6895,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H103" t="s">
         <v>151</v>
@@ -6950,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G104" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H104" t="s">
         <v>121</v>
@@ -7005,10 +7025,10 @@
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H105" t="s">
         <v>122</v>
@@ -7060,10 +7080,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H106" t="s">
         <v>151</v>
@@ -7115,10 +7135,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G107" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H107" t="s">
         <v>150</v>
@@ -7173,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G108" t="s">
         <v>79</v>
@@ -7225,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G109" t="s">
         <v>79</v>
@@ -7277,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G110" t="s">
         <v>79</v>
@@ -7329,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G111" t="s">
         <v>79</v>
@@ -7381,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G112" t="s">
         <v>79</v>
@@ -7433,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G113" t="s">
         <v>79</v>
@@ -7485,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G114" t="s">
         <v>2</v>
@@ -7540,7 +7560,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G115" t="s">
         <v>2</v>
@@ -7595,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G116" t="s">
         <v>79</v>
@@ -7644,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G117" t="s">
         <v>79</v>
@@ -7693,7 +7713,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G118" t="s">
         <v>79</v>
@@ -7742,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G119" t="s">
         <v>79</v>
@@ -7791,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G120" t="s">
         <v>79</v>
@@ -7840,7 +7860,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G121" t="s">
         <v>217</v>
@@ -7895,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G122" t="s">
         <v>217</v>
@@ -7950,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G123" t="s">
         <v>217</v>
@@ -8005,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G124" t="s">
         <v>217</v>
@@ -8060,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G125" t="s">
         <v>217</v>
@@ -8112,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G126" t="s">
         <v>217</v>
@@ -8164,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G127" t="s">
         <v>217</v>
@@ -8219,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G128" t="s">
         <v>217</v>
@@ -8274,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G129" t="s">
         <v>217</v>
@@ -8326,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G130" t="s">
         <v>217</v>
@@ -8381,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G131" t="s">
         <v>2</v>
@@ -8439,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G132" t="s">
         <v>2</v>
@@ -8497,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G133" t="s">
         <v>2</v>
@@ -8555,7 +8575,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G134" t="s">
         <v>2</v>
@@ -8613,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G135" t="s">
         <v>2</v>
@@ -8671,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G136" t="s">
         <v>2</v>
@@ -8726,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G137" t="s">
         <v>2</v>
@@ -8781,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G138" t="s">
         <v>2</v>
@@ -8836,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G139" t="s">
         <v>2</v>
@@ -8891,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G140" t="s">
         <v>2</v>
@@ -8946,7 +8966,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G141" t="s">
         <v>2</v>
@@ -9004,7 +9024,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G142" t="s">
         <v>2</v>
@@ -9059,7 +9079,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G143" t="s">
         <v>2</v>
@@ -9114,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G144" t="s">
         <v>2</v>
@@ -9169,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G145" t="s">
         <v>217</v>
@@ -9226,7 +9246,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G146" t="s">
         <v>217</v>
@@ -9283,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G147" t="s">
         <v>217</v>
@@ -9340,7 +9360,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G148" t="s">
         <v>217</v>
@@ -9397,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G149" t="s">
         <v>217</v>
@@ -9457,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G150" t="s">
         <v>217</v>
@@ -9517,7 +9537,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G151" t="s">
         <v>2</v>
@@ -9577,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G152" t="s">
         <v>2</v>
@@ -9637,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G153" t="s">
         <v>2</v>
@@ -9697,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G154" t="s">
         <v>2</v>
@@ -9757,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G155" t="s">
         <v>2</v>
@@ -9817,7 +9837,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G156" t="s">
         <v>2</v>
@@ -9877,7 +9897,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G157" t="s">
         <v>2</v>
@@ -9937,7 +9957,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G158" t="s">
         <v>2</v>
@@ -9997,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G159" t="s">
         <v>2</v>
@@ -10057,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G160" t="s">
         <v>2</v>
@@ -10103,10 +10123,10 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H161" t="s">
         <v>122</v>
@@ -10158,10 +10178,10 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G162" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H162" t="s">
         <v>122</v>
@@ -10213,10 +10233,10 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G163" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H163" t="s">
         <v>122</v>
@@ -10268,10 +10288,10 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G164" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H164" t="s">
         <v>122</v>
@@ -10323,10 +10343,10 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G165" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H165" t="s">
         <v>151</v>
@@ -10378,10 +10398,10 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G166" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H166" t="s">
         <v>122</v>
@@ -10433,10 +10453,10 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G167" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H167" t="s">
         <v>151</v>
@@ -10488,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G168" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H168" t="s">
         <v>151</v>
@@ -10543,10 +10563,10 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G169" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H169" t="s">
         <v>120</v>
@@ -10598,10 +10618,10 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G170" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H170" t="s">
         <v>119</v>
@@ -10653,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G171" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H171" t="s">
         <v>120</v>
@@ -10708,10 +10728,10 @@
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G172" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H172" t="s">
         <v>121</v>
@@ -10763,10 +10783,10 @@
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G173" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H173" t="s">
         <v>121</v>
@@ -10818,10 +10838,10 @@
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G174" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H174" t="s">
         <v>122</v>
@@ -10873,10 +10893,10 @@
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G175" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H175" t="s">
         <v>122</v>
@@ -10928,10 +10948,10 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H176" t="s">
         <v>122</v>
@@ -10983,10 +11003,10 @@
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G177" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H177" t="s">
         <v>122</v>
@@ -11038,10 +11058,10 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G178" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H178" t="s">
         <v>121</v>
@@ -11093,10 +11113,10 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G179" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H179" t="s">
         <v>122</v>
@@ -11148,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G180" t="s">
         <v>2</v>
@@ -11208,7 +11228,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G181" t="s">
         <v>2</v>
@@ -11268,7 +11288,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G182" t="s">
         <v>2</v>
@@ -11327,7 +11347,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G183" t="s">
         <v>2</v>
@@ -11387,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G184" t="s">
         <v>2</v>
@@ -11441,10 +11461,10 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G185" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H185" t="s">
         <v>150</v>
@@ -11499,10 +11519,10 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G186" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H186" t="s">
         <v>121</v>
@@ -11557,10 +11577,10 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G187" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H187" t="s">
         <v>151</v>
@@ -11615,10 +11635,10 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G188" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H188" t="s">
         <v>151</v>
@@ -11673,10 +11693,10 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G189" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H189" t="s">
         <v>152</v>
@@ -11731,10 +11751,10 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G190" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H190" t="s">
         <v>151</v>
@@ -11789,10 +11809,10 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G191" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H191" t="s">
         <v>122</v>
@@ -11847,10 +11867,10 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G192" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H192" t="s">
         <v>122</v>
@@ -11905,10 +11925,10 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G193" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H193" t="s">
         <v>122</v>
@@ -11963,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G194" t="s">
         <v>79</v>
@@ -12015,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G195" t="s">
         <v>79</v>
@@ -12067,7 +12087,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G196" t="s">
         <v>79</v>
@@ -12119,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G197" t="s">
         <v>79</v>
@@ -12171,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G198" t="s">
         <v>79</v>
@@ -12206,7 +12226,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B199">
         <v>1.6744913624871316</v>
@@ -12223,10 +12243,16 @@
         <v>0</v>
       </c>
       <c r="F199" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G199" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="H199" t="s">
+        <v>277</v>
+      </c>
+      <c r="I199" s="13">
+        <v>44312</v>
       </c>
       <c r="M199" s="12">
         <v>44916</v>
@@ -12239,7 +12265,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B200">
         <v>0.96799805948405215</v>
@@ -12259,7 +12285,13 @@
         <v>272</v>
       </c>
       <c r="G200" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="I200" s="13">
+        <v>44426</v>
       </c>
       <c r="M200" s="12">
         <v>44916</v>
@@ -12272,7 +12304,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B201">
         <v>2.0376924131551277</v>
@@ -12289,10 +12321,13 @@
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G201" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="I201" s="13">
+        <v>44431</v>
       </c>
       <c r="M201" s="12">
         <v>44916</v>
@@ -12305,7 +12340,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B202">
         <v>11.973797008170333</v>
@@ -12322,10 +12357,16 @@
         <v>0</v>
       </c>
       <c r="F202" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G202" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="H202" t="s">
+        <v>277</v>
+      </c>
+      <c r="I202" s="13">
+        <v>44312</v>
       </c>
       <c r="M202" s="12">
         <v>44916</v>
@@ -12338,7 +12379,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B203">
         <v>7.5212211647959499</v>
@@ -12355,10 +12396,16 @@
         <v>0</v>
       </c>
       <c r="F203" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G203" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="H203" t="s">
+        <v>277</v>
+      </c>
+      <c r="I203" s="13">
+        <v>44312</v>
       </c>
       <c r="M203" s="12">
         <v>44916</v>
@@ -12371,7 +12418,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B204">
         <v>0.49180112638601664</v>
@@ -12388,10 +12435,13 @@
         <v>0</v>
       </c>
       <c r="F204" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G204" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="I204" s="13">
+        <v>44431</v>
       </c>
       <c r="M204" s="12">
         <v>44916</v>
@@ -12404,7 +12454,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B205">
         <v>-0.56659363904206828</v>
@@ -12421,10 +12471,13 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G205" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="I205" s="13">
+        <v>44431</v>
       </c>
       <c r="M205" s="12">
         <v>44916</v>
@@ -12437,7 +12490,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B206">
         <v>3.1235290357447618</v>
@@ -12454,10 +12507,16 @@
         <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G206" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="H206" t="s">
+        <v>278</v>
+      </c>
+      <c r="I206" s="13">
+        <v>44628</v>
       </c>
       <c r="M206" s="12">
         <v>44916</v>
@@ -12469,8 +12528,8 @@
       <c r="R206" s="3"/>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>254</v>
+      <c r="A207">
+        <v>2499</v>
       </c>
       <c r="B207">
         <v>4.3939255996368276</v>
@@ -12487,10 +12546,10 @@
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G207" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="M207" s="12">
         <v>44916</v>
@@ -12500,10 +12559,13 @@
       </c>
       <c r="Q207" s="3"/>
       <c r="R207" s="3"/>
+      <c r="S207" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B208">
         <v>19.758675231969789</v>
@@ -12520,10 +12582,16 @@
         <v>0</v>
       </c>
       <c r="F208" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G208" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="H208" t="s">
+        <v>278</v>
+      </c>
+      <c r="I208" s="13">
+        <v>44628</v>
       </c>
       <c r="M208" s="12">
         <v>44916</v>
@@ -12534,9 +12602,9 @@
       <c r="Q208" s="3"/>
       <c r="R208" s="3"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B209">
         <v>0.73931591647086459</v>
@@ -12553,10 +12621,16 @@
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G209" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="H209" t="s">
+        <v>277</v>
+      </c>
+      <c r="I209" s="13">
+        <v>44312</v>
       </c>
       <c r="M209" s="12">
         <v>44916</v>
@@ -12567,9 +12641,9 @@
       <c r="Q209" s="3"/>
       <c r="R209" s="3"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B210">
         <v>0.93356121912440815</v>
@@ -12586,10 +12660,13 @@
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G210" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="I210" s="13">
+        <v>44431</v>
       </c>
       <c r="M210" s="12">
         <v>44916</v>
@@ -12600,9 +12677,9 @@
       <c r="Q210" s="3"/>
       <c r="R210" s="3"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B211">
         <v>9.9899121580771055</v>
@@ -12619,10 +12696,16 @@
         <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G211" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="H211" t="s">
+        <v>277</v>
+      </c>
+      <c r="I211" s="13">
+        <v>44312</v>
       </c>
       <c r="M211" s="12">
         <v>44916</v>
@@ -12633,9 +12716,9 @@
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B212">
         <v>17.07044938139596</v>
@@ -12652,10 +12735,16 @@
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G212" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="H212" t="s">
+        <v>277</v>
+      </c>
+      <c r="I212" s="13">
+        <v>44312</v>
       </c>
       <c r="M212" s="12">
         <v>44916</v>
@@ -12666,9 +12755,9 @@
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B213">
         <v>-1.4689464715905436</v>
@@ -12685,10 +12774,13 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G213" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="I213" s="13">
+        <v>44431</v>
       </c>
       <c r="M213" s="12">
         <v>44916</v>
@@ -12699,9 +12791,9 @@
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B214">
         <v>-1.3607932698360823</v>
@@ -12718,10 +12810,13 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G214" t="s">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="I214" s="13">
+        <v>44418</v>
       </c>
       <c r="M214" s="12">
         <v>44916</v>
@@ -12732,9 +12827,9 @@
       <c r="Q214" s="3"/>
       <c r="R214" s="3"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>262</v>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1133</v>
       </c>
       <c r="B215">
         <v>4.0274960951850876</v>
@@ -12751,10 +12846,10 @@
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G215" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="M215" s="12">
         <v>44916</v>
@@ -12764,10 +12859,13 @@
       </c>
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S215" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B216">
         <v>-1.4038393202856134</v>
@@ -12784,10 +12882,13 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G216" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="I216" s="13">
+        <v>44431</v>
       </c>
       <c r="M216" s="12">
         <v>44916</v>
@@ -12798,9 +12899,9 @@
       <c r="Q216" s="3"/>
       <c r="R216" s="3"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B217">
         <v>-1.1078977234450529</v>
@@ -12817,10 +12918,13 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="G217" t="s">
-        <v>272</v>
+        <v>275</v>
+      </c>
+      <c r="I217" s="13">
+        <v>44418</v>
       </c>
       <c r="M217" s="12">
         <v>44916</v>
@@ -12831,9 +12935,9 @@
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>265</v>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2227</v>
       </c>
       <c r="B218">
         <v>40.414860615812465</v>
@@ -12850,10 +12954,13 @@
         <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G218" t="s">
-        <v>272</v>
+        <v>217</v>
+      </c>
+      <c r="H218">
+        <v>46</v>
       </c>
       <c r="M218" s="12">
         <v>44916</v>
@@ -12863,10 +12970,13 @@
       </c>
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>266</v>
+      <c r="S218" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2078</v>
       </c>
       <c r="B219">
         <v>-8.1787495854133502E-2</v>
@@ -12883,10 +12993,13 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G219" t="s">
-        <v>272</v>
+        <v>217</v>
+      </c>
+      <c r="H219">
+        <v>33</v>
       </c>
       <c r="M219" s="12">
         <v>44917</v>
@@ -12896,10 +13009,13 @@
       </c>
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>267</v>
+      <c r="S219" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2031</v>
       </c>
       <c r="B220">
         <v>-1.4899314211847352</v>
@@ -12916,10 +13032,13 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G220" t="s">
-        <v>272</v>
+        <v>217</v>
+      </c>
+      <c r="H220">
+        <v>31</v>
       </c>
       <c r="M220" s="12">
         <v>44916</v>
@@ -12929,10 +13048,13 @@
       </c>
       <c r="Q220" s="3"/>
       <c r="R220" s="3"/>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>268</v>
+      <c r="S220" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2077</v>
       </c>
       <c r="B221">
         <v>2.6446417244936251</v>
@@ -12949,10 +13071,13 @@
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G221" t="s">
-        <v>272</v>
+        <v>217</v>
+      </c>
+      <c r="H221">
+        <v>33</v>
       </c>
       <c r="M221" s="12">
         <v>44917</v>
@@ -12962,10 +13087,13 @@
       </c>
       <c r="Q221" s="3"/>
       <c r="R221" s="3"/>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>269</v>
+      <c r="S221" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2223</v>
       </c>
       <c r="B222">
         <v>17.460016137964296</v>
@@ -12982,10 +13110,13 @@
         <v>0</v>
       </c>
       <c r="F222" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G222" t="s">
-        <v>272</v>
+        <v>217</v>
+      </c>
+      <c r="H222">
+        <v>45</v>
       </c>
       <c r="M222" s="12">
         <v>44917</v>
@@ -12995,10 +13126,13 @@
       </c>
       <c r="Q222" s="3"/>
       <c r="R222" s="3"/>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>270</v>
+      <c r="S222" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2224</v>
       </c>
       <c r="B223">
         <v>37.694888303032144</v>
@@ -13015,10 +13149,13 @@
         <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G223" t="s">
-        <v>272</v>
+        <v>217</v>
+      </c>
+      <c r="H223">
+        <v>45</v>
       </c>
       <c r="M223" s="12">
         <v>44917</v>
@@ -13028,10 +13165,13 @@
       </c>
       <c r="Q223" s="3"/>
       <c r="R223" s="3"/>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>271</v>
+      <c r="S223" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2030</v>
       </c>
       <c r="B224">
         <v>-1.3381940933501022</v>
@@ -13048,10 +13188,13 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G224" t="s">
-        <v>272</v>
+        <v>217</v>
+      </c>
+      <c r="H224">
+        <v>31</v>
       </c>
       <c r="M224" s="12">
         <v>44917</v>
@@ -13061,6 +13204,9 @@
       </c>
       <c r="Q224" s="3"/>
       <c r="R224" s="3"/>
+      <c r="S224" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="225" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q225" s="3"/>
